--- a/code/src/data/genAI_Data.xlsx
+++ b/code/src/data/genAI_Data.xlsx
@@ -3705,7 +3705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3728,60 +3728,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Valid CUSIP Number Length</t>
+          <t>Origination Date Format and Range</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CUSIP Number (if provided) must be exactly 6 digits long.</t>
+          <t>The 'Origination Date' must be in 'yyyy-mm-dd' format and must be before or equal to the reporting period end date.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>No Special Characters in Obligor Name</t>
+          <t>Unique Internal ID</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Obligor Name must not contain carriage return, line feed, comma, or any unprintable character.</t>
+          <t>The 'Internal ID' must be unique for each obligor and must not contain a carriage return, line feed, comma, or any unprintable character.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>No Special Characters in Customer ID</t>
+          <t>Valid CUSIP Number</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Customer ID must not contain carriage return, line feed, comma, or any unprintable character.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>No Special Characters in Internal ID</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Internal ID must not contain carriage return, line feed, comma, or any unprintable character.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CUSIP Number Validity Check</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>If CUSIP Number is provided, it must be a valid CUSIP number as per the CUSIP Service Bureau's standards (checksum validation).</t>
+          <t>If provided, the 'CUSIP Number' must be a valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
         </is>
       </c>
     </row>
